--- a/Gantt project planner.xlsx
+++ b/Gantt project planner.xlsx
@@ -1676,7 +1676,7 @@
   <dimension ref="A1:BO36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="80" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7962962962963" defaultRowHeight="30" customHeight="1"/>
@@ -2119,10 +2119,14 @@
       <c r="D10" s="25">
         <v>1</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="25">
+        <v>5</v>
+      </c>
+      <c r="F10" s="25">
+        <v>1</v>
+      </c>
       <c r="G10" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
@@ -2155,10 +2159,14 @@
       <c r="D11" s="25">
         <v>2</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="25">
+        <v>5</v>
+      </c>
+      <c r="F11" s="25">
+        <v>3</v>
+      </c>
       <c r="G11" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -2221,12 +2229,14 @@
       <c r="D13" s="22">
         <v>2</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="22">
+        <v>6</v>
+      </c>
       <c r="F13" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="39" customHeight="1" spans="2:7">
@@ -2239,12 +2249,14 @@
       <c r="D14" s="22">
         <v>2</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="22">
+        <v>6</v>
+      </c>
       <c r="F14" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="37" customHeight="1" spans="2:7">
